--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value62.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value62.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6341050234884774</v>
+        <v>1.837392449378967</v>
       </c>
       <c r="B1">
-        <v>0.997105320074416</v>
+        <v>2.079525470733643</v>
       </c>
       <c r="C1">
-        <v>2.029607488354554</v>
+        <v>2.464934110641479</v>
       </c>
       <c r="D1">
-        <v>2.52355946034458</v>
+        <v>2.417133808135986</v>
       </c>
       <c r="E1">
-        <v>2.842231753020164</v>
+        <v>2.570950031280518</v>
       </c>
     </row>
   </sheetData>
